--- a/medicine/Mort/Cimetière_juif_de_Sulzburg/Cimetière_juif_de_Sulzburg.xlsx
+++ b/medicine/Mort/Cimetière_juif_de_Sulzburg/Cimetière_juif_de_Sulzburg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_de_Sulzburg</t>
+          <t>Cimetière_juif_de_Sulzburg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière juif de Sulzburg (en allemand : jüdischer Friedhof Sulzburg) est un cimetière juif situé à Sulzburg dans le Land de Bade-Wurtemberg, en Allemagne[1]. Il est protégé au titre des monuments historiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière juif de Sulzburg (en allemand : jüdischer Friedhof Sulzburg) est un cimetière juif situé à Sulzburg dans le Land de Bade-Wurtemberg, en Allemagne. Il est protégé au titre des monuments historiques.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_de_Sulzburg</t>
+          <t>Cimetière_juif_de_Sulzburg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière juif se trouve sur la Badstraße[1] dans le bois de Berholz[2]. Il s'étend sur 61,84 ares[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière juif se trouve sur la Badstraße dans le bois de Berholz. Il s'étend sur 61,84 ares.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_de_Sulzburg</t>
+          <t>Cimetière_juif_de_Sulzburg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière est vraisemblablement construit au milieu du XVIe siècle[1],[2]. Des Juifs de Sulzburg et alentours y sont inhumés[2] jusqu'à l'ouverture du cimetière juif collectif de Lörrach en 1670. Durant plusieurs décennies, aucune tombe n'est ajoutée et le cimetière tombe en ruines.
-En 1717, le cimetière retrouve sa vocation[1],[2]. La petite salle du cimetière est construite à cette période. Le cimetière compte 462 tombes ; la plus vieille stèle datable est posée en 1731[1],[2]. Des traces de profanation sont visibles dans la partie récente du cimetière[1].
-En 1970, un monument est érigé en hommage aux victimes juives des persécutions sous le Troisième Reich[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est vraisemblablement construit au milieu du XVIe siècle,. Des Juifs de Sulzburg et alentours y sont inhumés jusqu'à l'ouverture du cimetière juif collectif de Lörrach en 1670. Durant plusieurs décennies, aucune tombe n'est ajoutée et le cimetière tombe en ruines.
+En 1717, le cimetière retrouve sa vocation,. La petite salle du cimetière est construite à cette période. Le cimetière compte 462 tombes ; la plus vieille stèle datable est posée en 1731,. Des traces de profanation sont visibles dans la partie récente du cimetière.
+En 1970, un monument est érigé en hommage aux victimes juives des persécutions sous le Troisième Reich.
 </t>
         </is>
       </c>
